--- a/empirical-rule/empirical-rule.xlsx
+++ b/empirical-rule/empirical-rule.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\training-assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\stats-ms-excel-toronto\empirical-rule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650BF05F-FF0B-48D6-A150-F0353D1EB1C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D54264-E7B0-4FF0-BAA8-069463F7908A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13373" activeTab="1" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="empirical-rule-start" sheetId="14" r:id="rId1"/>
-    <sheet name="empirical-rule-finish" sheetId="16" r:id="rId2"/>
-    <sheet name="confidence-interval-finish (2)" sheetId="17" state="hidden" r:id="rId3"/>
+    <sheet name="intro" sheetId="18" r:id="rId1"/>
+    <sheet name="empirical-rule-start" sheetId="14" r:id="rId2"/>
+    <sheet name="empirical-rule-finish" sheetId="16" r:id="rId3"/>
+    <sheet name="confidence-interval-finish (2)" sheetId="17" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Mean</t>
   </si>
@@ -63,15 +64,18 @@
   <si>
     <t>upper</t>
   </si>
+  <si>
+    <t>What is the empirical rule?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00000%"/>
+    <numFmt numFmtId="164" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +87,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,12 +132,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -325,430 +338,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>The empirical rule, visualized</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'empirical-rule-start'!$B$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>pdf</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'empirical-rule-start'!$B$8:$B$107</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000%</c:formatCode>
-                <c:ptCount val="100"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0FB0-45F7-8B19-27561705FD6D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'empirical-rule-start'!$C$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1 s.d.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'empirical-rule-start'!$C$8:$C$107</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0FB0-45F7-8B19-27561705FD6D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'empirical-rule-start'!$D$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2 s.d.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'empirical-rule-start'!$D$8:$D$107</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0FB0-45F7-8B19-27561705FD6D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'empirical-rule-start'!$E$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3 s.d.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'empirical-rule-start'!$E$8:$E$107</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0FB0-45F7-8B19-27561705FD6D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1082837183"/>
-        <c:axId val="287038319"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1082837183"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="287038319"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="287038319"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1082837183"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>68% of values fall</a:t>
             </a:r>
             <a:r>
@@ -799,7 +388,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'empirical-rule-finish'!$B$7</c:f>
+              <c:f>'empirical-rule-start'!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -819,316 +408,16 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'empirical-rule-finish'!$B$8:$B$107</c:f>
+              <c:f>'empirical-rule-start'!$B$8:$B$107</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000%</c:formatCode>
                 <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>2.438960745893352E-7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.9612990910320755E-7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.3698251788670893E-7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.014085206548676E-6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5983741106905478E-6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.4942471290053532E-6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.8535196742087128E-6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.8943067756539858E-6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.9261657177132918E-6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3383022576488536E-5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.9865547139277272E-5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.9194692579146026E-5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.2478027055075142E-5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.1190193011377187E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.726826950457601E-5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.2322191684730198E-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.722568939053681E-4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.3840882014648405E-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.2668190561999186E-4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.4318484119380076E-4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.9525324197758534E-4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.9154515829799694E-4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.0420934814422591E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.3582969233685612E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.752830049356854E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.2394530294842902E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.8327037741601186E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.5474592846231421E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.3983595980427196E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.3990966513188061E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6.5615814774676604E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.8950158300894139E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>9.4049077376886937E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.1092083467945555E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.2951759566589173E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.4972746563574486E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.7136859204780735E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.9418605498321296E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2.1785217703255054E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.4197072451914336E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.6608524989875482E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.8969155276148274E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.1225393336676129E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.3322460289179963E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.5206532676429952E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.6827014030332332E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.8138781546052408E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.9104269397545591E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.9695254747701178E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3.9894228040143274E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.9695254747701178E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.9104269397545591E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.8138781546052408E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3.6827014030332332E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3.5206532676429952E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3.3322460289179963E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>3.1225393336676129E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.8969155276148274E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.6608524989875482E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.4197072451914336E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2.1785217703255054E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.9418605498321296E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.7136859204780735E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.4972746563574486E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.2951759566589173E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.1092083467945555E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>9.4049077376886937E-3</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>7.8950158300894139E-3</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6.5615814774676604E-3</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>5.3990966513188061E-3</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>4.3983595980427196E-3</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>3.5474592846231421E-3</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.8327037741601186E-3</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2.2394530294842902E-3</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.752830049356854E-3</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.3582969233685612E-3</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.0420934814422591E-3</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7.9154515829799694E-4</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>5.9525324197758534E-4</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>4.4318484119380076E-4</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>3.2668190561999186E-4</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.3840882014648405E-4</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.722568939053681E-4</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.2322191684730198E-4</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>8.726826950457601E-5</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>6.1190193011377187E-5</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>4.2478027055075142E-5</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.9194692579146026E-5</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.9865547139277272E-5</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.3383022576488536E-5</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>8.9261657177132918E-6</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>5.8943067756539858E-6</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>3.8535196742087128E-6</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.4942471290053532E-6</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.5983741106905478E-6</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1.014085206548676E-6</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>6.3698251788670893E-7</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>3.9612990910320755E-7</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.438960745893352E-7</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1.4867195147342977E-7</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DBA9-4394-939A-66F999C97A03}"/>
+              <c16:uniqueId val="{00000000-DC5B-4278-AC56-CD1719442176}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1137,7 +426,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'empirical-rule-finish'!$C$7</c:f>
+              <c:f>'empirical-rule-start'!$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1157,316 +446,16 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'empirical-rule-finish'!$C$8:$C$107</c:f>
+              <c:f>'empirical-rule-start'!$C$8:$C$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.6608524989875482E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.8969155276148274E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.1225393336676129E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.3322460289179963E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.5206532676429952E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.6827014030332332E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.8138781546052408E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.9104269397545591E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.9695254747701178E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3.9894228040143274E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.9695254747701178E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.9104269397545591E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.8138781546052408E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3.6827014030332332E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3.5206532676429952E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3.3322460289179963E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>3.1225393336676129E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.8969155276148274E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.6608524989875482E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DBA9-4394-939A-66F999C97A03}"/>
+              <c16:uniqueId val="{00000001-DC5B-4278-AC56-CD1719442176}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1657,7 +646,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1742,7 +731,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'empirical-rule-finish'!$B$7</c:f>
+              <c:f>'empirical-rule-start'!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1762,316 +751,16 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'empirical-rule-finish'!$B$8:$B$107</c:f>
+              <c:f>'empirical-rule-start'!$B$8:$B$107</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000%</c:formatCode>
                 <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>2.438960745893352E-7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.9612990910320755E-7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.3698251788670893E-7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.014085206548676E-6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5983741106905478E-6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.4942471290053532E-6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.8535196742087128E-6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.8943067756539858E-6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.9261657177132918E-6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3383022576488536E-5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.9865547139277272E-5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.9194692579146026E-5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.2478027055075142E-5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.1190193011377187E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.726826950457601E-5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.2322191684730198E-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.722568939053681E-4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.3840882014648405E-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.2668190561999186E-4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.4318484119380076E-4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.9525324197758534E-4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.9154515829799694E-4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.0420934814422591E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.3582969233685612E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.752830049356854E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.2394530294842902E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.8327037741601186E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.5474592846231421E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.3983595980427196E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.3990966513188061E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6.5615814774676604E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.8950158300894139E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>9.4049077376886937E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.1092083467945555E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.2951759566589173E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.4972746563574486E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.7136859204780735E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.9418605498321296E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2.1785217703255054E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.4197072451914336E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.6608524989875482E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.8969155276148274E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.1225393336676129E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.3322460289179963E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.5206532676429952E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.6827014030332332E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.8138781546052408E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.9104269397545591E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.9695254747701178E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3.9894228040143274E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.9695254747701178E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.9104269397545591E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.8138781546052408E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3.6827014030332332E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3.5206532676429952E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3.3322460289179963E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>3.1225393336676129E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.8969155276148274E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.6608524989875482E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.4197072451914336E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2.1785217703255054E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.9418605498321296E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.7136859204780735E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.4972746563574486E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.2951759566589173E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.1092083467945555E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>9.4049077376886937E-3</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>7.8950158300894139E-3</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6.5615814774676604E-3</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>5.3990966513188061E-3</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>4.3983595980427196E-3</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>3.5474592846231421E-3</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.8327037741601186E-3</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2.2394530294842902E-3</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.752830049356854E-3</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.3582969233685612E-3</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.0420934814422591E-3</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7.9154515829799694E-4</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>5.9525324197758534E-4</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>4.4318484119380076E-4</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>3.2668190561999186E-4</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.3840882014648405E-4</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.722568939053681E-4</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.2322191684730198E-4</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>8.726826950457601E-5</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>6.1190193011377187E-5</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>4.2478027055075142E-5</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.9194692579146026E-5</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.9865547139277272E-5</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.3383022576488536E-5</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>8.9261657177132918E-6</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>5.8943067756539858E-6</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>3.8535196742087128E-6</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.4942471290053532E-6</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.5983741106905478E-6</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1.014085206548676E-6</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>6.3698251788670893E-7</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>3.9612990910320755E-7</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.438960745893352E-7</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1.4867195147342977E-7</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8C04-4D85-B2B3-75AD3AD85347}"/>
+              <c16:uniqueId val="{00000000-31EE-48E6-B750-477839386DA9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2080,7 +769,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'empirical-rule-finish'!$D$7</c:f>
+              <c:f>'empirical-rule-start'!$D$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2100,316 +789,359 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'empirical-rule-finish'!$D$8:$D$107</c:f>
+              <c:f>'empirical-rule-start'!$D$8:$D$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6.5615814774676604E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.8950158300894139E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>9.4049077376886937E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.1092083467945555E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.2951759566589173E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.4972746563574486E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.7136859204780735E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.9418605498321296E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2.1785217703255054E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.4197072451914336E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.6608524989875482E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.8969155276148274E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.1225393336676129E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.3322460289179963E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.5206532676429952E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.6827014030332332E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.8138781546052408E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.9104269397545591E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.9695254747701178E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3.9894228040143274E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.9695254747701178E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.9104269397545591E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.8138781546052408E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3.6827014030332332E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3.5206532676429952E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3.3322460289179963E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>3.1225393336676129E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.8969155276148274E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.6608524989875482E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.4197072451914336E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2.1785217703255054E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.9418605498321296E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.7136859204780735E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.4972746563574486E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.2951759566589173E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.1092083467945555E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>9.4049077376886937E-3</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>7.8950158300894139E-3</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6.5615814774676604E-3</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8C04-4D85-B2B3-75AD3AD85347}"/>
+              <c16:uniqueId val="{00000001-31EE-48E6-B750-477839386DA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1172616656"/>
+        <c:axId val="1116833600"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="1172616656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode=";;;" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1116833600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1116833600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1172616656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>99.7% of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> values fall within three standard deviations of the mean</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'empirical-rule-start'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pdf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'empirical-rule-start'!$B$8:$B$107</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000%</c:formatCode>
+                <c:ptCount val="100"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FDA8-4AD3-B155-FAC99205064A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'empirical-rule-start'!$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 s.d.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'empirical-rule-start'!$E$8:$E$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FDA8-4AD3-B155-FAC99205064A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2635,6 +1367,1892 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>68% of values fall</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> within one standard deviation of the mean</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'empirical-rule-finish'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pdf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'empirical-rule-finish'!$B$8:$B$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2.438960745893352E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9612990910320755E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3698251788670893E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.014085206548676E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5983741106905478E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4942471290053532E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8535196742087128E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8943067756539858E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9261657177132918E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3383022576488536E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9865547139277272E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9194692579146026E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.2478027055075142E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.1190193011377187E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.726826950457601E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2322191684730198E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.722568939053681E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3840882014648405E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2668190561999186E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.4318484119380076E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.9525324197758534E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.9154515829799694E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0420934814422591E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3582969233685612E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.752830049356854E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.2394530294842902E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.8327037741601186E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.5474592846231421E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.3983595980427196E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.3990966513188061E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.5615814774676604E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.8950158300894139E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.4049077376886937E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.1092083467945555E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.2951759566589173E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4972746563574486E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.7136859204780735E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.9418605498321296E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.1785217703255054E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.4197072451914336E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.6608524989875482E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.8969155276148274E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.1225393336676129E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.3322460289179963E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.5206532676429952E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.6827014030332332E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.8138781546052408E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.9104269397545591E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.9695254747701178E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.9894228040143274E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.9695254747701178E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.9104269397545591E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.8138781546052408E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.6827014030332332E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.5206532676429952E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.3322460289179963E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.1225393336676129E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.8969155276148274E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.6608524989875482E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.4197072451914336E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.1785217703255054E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.9418605498321296E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.7136859204780735E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.4972746563574486E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.2951759566589173E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.1092083467945555E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.4049077376886937E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.8950158300894139E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.5615814774676604E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.3990966513188061E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.3983595980427196E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.5474592846231421E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.8327037741601186E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.2394530294842902E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.752830049356854E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.3582969233685612E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.0420934814422591E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.9154515829799694E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.9525324197758534E-4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.4318484119380076E-4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.2668190561999186E-4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.3840882014648405E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.722568939053681E-4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.2322191684730198E-4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.726826950457601E-5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.1190193011377187E-5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.2478027055075142E-5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.9194692579146026E-5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.9865547139277272E-5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.3383022576488536E-5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8.9261657177132918E-6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.8943067756539858E-6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.8535196742087128E-6</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.4942471290053532E-6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.5983741106905478E-6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.014085206548676E-6</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.3698251788670893E-7</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.9612990910320755E-7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.438960745893352E-7</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.4867195147342977E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DBA9-4394-939A-66F999C97A03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'empirical-rule-finish'!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 s.d.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'empirical-rule-finish'!$C$8:$C$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.6608524989875482E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.8969155276148274E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.1225393336676129E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.3322460289179963E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.5206532676429952E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.6827014030332332E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.8138781546052408E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.9104269397545591E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.9695254747701178E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.9894228040143274E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.9695254747701178E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.9104269397545591E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.8138781546052408E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.6827014030332332E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.5206532676429952E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.3322460289179963E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.1225393336676129E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.8969155276148274E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.6608524989875482E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DBA9-4394-939A-66F999C97A03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1142860256"/>
+        <c:axId val="1151226688"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="1142860256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode=";;;" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1151226688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1151226688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1142860256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>95% of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> values fall within two standard deviations of the mean</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'empirical-rule-finish'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pdf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'empirical-rule-finish'!$B$8:$B$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2.438960745893352E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9612990910320755E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3698251788670893E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.014085206548676E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5983741106905478E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4942471290053532E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8535196742087128E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8943067756539858E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9261657177132918E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3383022576488536E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9865547139277272E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9194692579146026E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.2478027055075142E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.1190193011377187E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.726826950457601E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2322191684730198E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.722568939053681E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3840882014648405E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2668190561999186E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.4318484119380076E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.9525324197758534E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.9154515829799694E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0420934814422591E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3582969233685612E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.752830049356854E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.2394530294842902E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.8327037741601186E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.5474592846231421E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.3983595980427196E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.3990966513188061E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.5615814774676604E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.8950158300894139E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.4049077376886937E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.1092083467945555E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.2951759566589173E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4972746563574486E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.7136859204780735E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.9418605498321296E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.1785217703255054E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.4197072451914336E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.6608524989875482E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.8969155276148274E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.1225393336676129E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.3322460289179963E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.5206532676429952E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.6827014030332332E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.8138781546052408E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.9104269397545591E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.9695254747701178E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.9894228040143274E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.9695254747701178E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.9104269397545591E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.8138781546052408E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.6827014030332332E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.5206532676429952E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.3322460289179963E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.1225393336676129E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.8969155276148274E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.6608524989875482E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.4197072451914336E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.1785217703255054E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.9418605498321296E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.7136859204780735E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.4972746563574486E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.2951759566589173E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.1092083467945555E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.4049077376886937E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.8950158300894139E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.5615814774676604E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.3990966513188061E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.3983595980427196E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.5474592846231421E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.8327037741601186E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.2394530294842902E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.752830049356854E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.3582969233685612E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.0420934814422591E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.9154515829799694E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.9525324197758534E-4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.4318484119380076E-4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.2668190561999186E-4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.3840882014648405E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.722568939053681E-4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.2322191684730198E-4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.726826950457601E-5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.1190193011377187E-5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.2478027055075142E-5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.9194692579146026E-5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.9865547139277272E-5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.3383022576488536E-5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8.9261657177132918E-6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.8943067756539858E-6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.8535196742087128E-6</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.4942471290053532E-6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.5983741106905478E-6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.014085206548676E-6</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.3698251788670893E-7</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.9612990910320755E-7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.438960745893352E-7</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.4867195147342977E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C04-4D85-B2B3-75AD3AD85347}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'empirical-rule-finish'!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 s.d.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'empirical-rule-finish'!$D$8:$D$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.5615814774676604E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.8950158300894139E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.4049077376886937E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.1092083467945555E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.2951759566589173E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4972746563574486E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.7136859204780735E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.9418605498321296E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.1785217703255054E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.4197072451914336E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.6608524989875482E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.8969155276148274E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.1225393336676129E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.3322460289179963E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.5206532676429952E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.6827014030332332E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.8138781546052408E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.9104269397545591E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.9695254747701178E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.9894228040143274E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.9695254747701178E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.9104269397545591E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.8138781546052408E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.6827014030332332E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.5206532676429952E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.3322460289179963E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.1225393336676129E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.8969155276148274E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.6608524989875482E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.4197072451914336E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.1785217703255054E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.9418605498321296E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.7136859204780735E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.4972746563574486E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.2951759566589173E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.1092083467945555E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.4049077376886937E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.8950158300894139E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.5615814774676604E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8C04-4D85-B2B3-75AD3AD85347}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1172616656"/>
+        <c:axId val="1116833600"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="1172616656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode=";;;" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1116833600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1116833600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1172616656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>99.7% of</a:t>
             </a:r>
             <a:r>
@@ -3543,7 +4161,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4486,7 +5104,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5429,7 +6047,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6652,8 +7270,88 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6761,11 +7459,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6776,11 +7469,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -6812,9 +7500,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6870,22 +7555,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6935,9 +7621,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:floor>
@@ -6990,8 +7681,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7055,6 +7746,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -7123,19 +7825,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -10294,31 +10997,1124 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>427824</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>32553</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D12FD645-BCE3-42AC-99DF-0D1EDEB6B679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="491067"/>
+          <a:ext cx="4932091" cy="8279086"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>83826</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C16F0D1-7BAB-4893-A785-FF39F626A2ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CC0F4A1-038F-4CCF-964F-D73C4411B938}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -10332,10 +12128,86 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41AD9227-363F-4F4C-975A-A4966953017F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>182027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76194</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F323044-C624-4E03-AAF2-CF60B31980FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10450,7 +12322,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10865,24 +12737,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6275A2-A016-4709-BD42-E898D7440F19}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="25.7" x14ac:dyDescent="0.85">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D38563D-3453-431A-AD87-AFED9D05F5AC}">
   <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.64453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10893,7 +12786,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10904,12 +12797,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -10920,7 +12813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -10928,7 +12821,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -10936,7 +12829,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -10953,7 +12846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -10962,7 +12855,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -10971,7 +12864,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -10980,7 +12873,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>4</v>
       </c>
@@ -10989,7 +12882,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>5</v>
       </c>
@@ -10998,7 +12891,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>6</v>
       </c>
@@ -11007,7 +12900,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>7</v>
       </c>
@@ -11016,7 +12909,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>8</v>
       </c>
@@ -11025,7 +12918,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>9</v>
       </c>
@@ -11034,7 +12927,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>10</v>
       </c>
@@ -11043,7 +12936,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>11</v>
       </c>
@@ -11052,7 +12945,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>12</v>
       </c>
@@ -11061,7 +12954,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>13</v>
       </c>
@@ -11070,7 +12963,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>14</v>
       </c>
@@ -11079,7 +12972,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>15</v>
       </c>
@@ -11088,7 +12981,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" s="3">
         <v>16</v>
       </c>
@@ -11097,7 +12990,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" s="3">
         <v>17</v>
       </c>
@@ -11106,7 +12999,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A25" s="3">
         <v>18</v>
       </c>
@@ -11115,7 +13008,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" s="3">
         <v>19</v>
       </c>
@@ -11124,7 +13017,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" s="3">
         <v>20</v>
       </c>
@@ -11133,7 +13026,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" s="3">
         <v>21</v>
       </c>
@@ -11142,7 +13035,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" s="3">
         <v>22</v>
       </c>
@@ -11151,7 +13044,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" s="3">
         <v>23</v>
       </c>
@@ -11160,7 +13053,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" s="3">
         <v>24</v>
       </c>
@@ -11169,7 +13062,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" s="3">
         <v>25</v>
       </c>
@@ -11178,7 +13071,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" s="3">
         <v>26</v>
       </c>
@@ -11187,7 +13080,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" s="3">
         <v>27</v>
       </c>
@@ -11196,7 +13089,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35" s="3">
         <v>28</v>
       </c>
@@ -11205,7 +13098,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" s="3">
         <v>29</v>
       </c>
@@ -11214,7 +13107,7 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A37" s="3">
         <v>30</v>
       </c>
@@ -11223,7 +13116,7 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" s="3">
         <v>31</v>
       </c>
@@ -11232,7 +13125,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" s="3">
         <v>32</v>
       </c>
@@ -11241,7 +13134,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" s="3">
         <v>33</v>
       </c>
@@ -11250,7 +13143,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A41" s="3">
         <v>34</v>
       </c>
@@ -11259,7 +13152,7 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" s="3">
         <v>35</v>
       </c>
@@ -11268,7 +13161,7 @@
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43" s="3">
         <v>36</v>
       </c>
@@ -11277,7 +13170,7 @@
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A44" s="3">
         <v>37</v>
       </c>
@@ -11286,7 +13179,7 @@
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45" s="3">
         <v>38</v>
       </c>
@@ -11295,7 +13188,7 @@
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" s="3">
         <v>39</v>
       </c>
@@ -11304,7 +13197,7 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A47" s="3">
         <v>40</v>
       </c>
@@ -11313,7 +13206,7 @@
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" s="3">
         <v>41</v>
       </c>
@@ -11322,7 +13215,7 @@
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A49" s="3">
         <v>42</v>
       </c>
@@ -11331,7 +13224,7 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A50" s="3">
         <v>43</v>
       </c>
@@ -11340,7 +13233,7 @@
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A51" s="3">
         <v>44</v>
       </c>
@@ -11349,7 +13242,7 @@
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A52" s="3">
         <v>45</v>
       </c>
@@ -11358,7 +13251,7 @@
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A53" s="3">
         <v>46</v>
       </c>
@@ -11367,7 +13260,7 @@
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A54" s="3">
         <v>47</v>
       </c>
@@ -11376,7 +13269,7 @@
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A55" s="3">
         <v>48</v>
       </c>
@@ -11385,7 +13278,7 @@
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A56" s="3">
         <v>49</v>
       </c>
@@ -11394,7 +13287,7 @@
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A57" s="3">
         <v>50</v>
       </c>
@@ -11403,7 +13296,7 @@
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A58" s="3">
         <v>51</v>
       </c>
@@ -11412,7 +13305,7 @@
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A59" s="3">
         <v>52</v>
       </c>
@@ -11421,7 +13314,7 @@
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A60" s="3">
         <v>53</v>
       </c>
@@ -11430,7 +13323,7 @@
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A61" s="3">
         <v>54</v>
       </c>
@@ -11439,7 +13332,7 @@
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A62" s="3">
         <v>55</v>
       </c>
@@ -11448,7 +13341,7 @@
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A63" s="3">
         <v>56</v>
       </c>
@@ -11457,7 +13350,7 @@
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A64" s="3">
         <v>57</v>
       </c>
@@ -11466,7 +13359,7 @@
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A65" s="3">
         <v>58</v>
       </c>
@@ -11475,7 +13368,7 @@
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A66" s="3">
         <v>59</v>
       </c>
@@ -11484,7 +13377,7 @@
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A67" s="3">
         <v>60</v>
       </c>
@@ -11493,7 +13386,7 @@
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A68" s="3">
         <v>61</v>
       </c>
@@ -11502,7 +13395,7 @@
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A69" s="3">
         <v>62</v>
       </c>
@@ -11511,7 +13404,7 @@
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A70" s="3">
         <v>63</v>
       </c>
@@ -11520,7 +13413,7 @@
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A71" s="3">
         <v>64</v>
       </c>
@@ -11529,7 +13422,7 @@
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A72" s="3">
         <v>65</v>
       </c>
@@ -11538,7 +13431,7 @@
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A73" s="3">
         <v>66</v>
       </c>
@@ -11547,7 +13440,7 @@
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A74" s="3">
         <v>67</v>
       </c>
@@ -11556,7 +13449,7 @@
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A75" s="3">
         <v>68</v>
       </c>
@@ -11565,7 +13458,7 @@
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A76" s="3">
         <v>69</v>
       </c>
@@ -11574,7 +13467,7 @@
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A77" s="3">
         <v>70</v>
       </c>
@@ -11583,7 +13476,7 @@
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A78" s="3">
         <v>71</v>
       </c>
@@ -11592,7 +13485,7 @@
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A79" s="3">
         <v>72</v>
       </c>
@@ -11601,7 +13494,7 @@
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A80" s="3">
         <v>73</v>
       </c>
@@ -11610,7 +13503,7 @@
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A81" s="3">
         <v>74</v>
       </c>
@@ -11619,7 +13512,7 @@
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A82" s="3">
         <v>75</v>
       </c>
@@ -11628,7 +13521,7 @@
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A83" s="3">
         <v>76</v>
       </c>
@@ -11637,7 +13530,7 @@
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A84" s="3">
         <v>77</v>
       </c>
@@ -11646,7 +13539,7 @@
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A85" s="3">
         <v>78</v>
       </c>
@@ -11655,7 +13548,7 @@
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A86" s="3">
         <v>79</v>
       </c>
@@ -11664,7 +13557,7 @@
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A87" s="3">
         <v>80</v>
       </c>
@@ -11673,7 +13566,7 @@
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A88" s="3">
         <v>81</v>
       </c>
@@ -11682,7 +13575,7 @@
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A89" s="3">
         <v>82</v>
       </c>
@@ -11691,7 +13584,7 @@
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A90" s="3">
         <v>83</v>
       </c>
@@ -11700,7 +13593,7 @@
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A91" s="3">
         <v>84</v>
       </c>
@@ -11709,7 +13602,7 @@
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A92" s="3">
         <v>85</v>
       </c>
@@ -11718,7 +13611,7 @@
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A93" s="3">
         <v>86</v>
       </c>
@@ -11727,7 +13620,7 @@
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A94" s="3">
         <v>87</v>
       </c>
@@ -11736,7 +13629,7 @@
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A95" s="3">
         <v>88</v>
       </c>
@@ -11745,7 +13638,7 @@
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A96" s="3">
         <v>89</v>
       </c>
@@ -11754,7 +13647,7 @@
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A97" s="3">
         <v>90</v>
       </c>
@@ -11763,7 +13656,7 @@
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A98" s="3">
         <v>91</v>
       </c>
@@ -11772,7 +13665,7 @@
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A99" s="3">
         <v>92</v>
       </c>
@@ -11781,7 +13674,7 @@
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A100" s="3">
         <v>93</v>
       </c>
@@ -11790,7 +13683,7 @@
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A101" s="3">
         <v>94</v>
       </c>
@@ -11799,7 +13692,7 @@
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A102" s="3">
         <v>95</v>
       </c>
@@ -11808,7 +13701,7 @@
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A103" s="3">
         <v>96</v>
       </c>
@@ -11817,7 +13710,7 @@
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A104" s="3">
         <v>97</v>
       </c>
@@ -11826,7 +13719,7 @@
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A105" s="3">
         <v>98</v>
       </c>
@@ -11835,7 +13728,7 @@
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A106" s="3">
         <v>99</v>
       </c>
@@ -11844,7 +13737,7 @@
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A107" s="3">
         <v>100</v>
       </c>
@@ -11860,25 +13753,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89A5E86-0F0C-45C3-9128-FB0F8B350500}">
   <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.64453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11889,7 +13782,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11900,12 +13793,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -11916,7 +13809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -11933,7 +13826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -11950,7 +13843,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -11967,7 +13860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -11988,7 +13881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -12009,7 +13902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -12030,7 +13923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>4</v>
       </c>
@@ -12051,7 +13944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>5</v>
       </c>
@@ -12072,7 +13965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>6</v>
       </c>
@@ -12093,7 +13986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>7</v>
       </c>
@@ -12114,7 +14007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>8</v>
       </c>
@@ -12135,7 +14028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>9</v>
       </c>
@@ -12156,7 +14049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>10</v>
       </c>
@@ -12177,7 +14070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>11</v>
       </c>
@@ -12198,7 +14091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>12</v>
       </c>
@@ -12219,7 +14112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>13</v>
       </c>
@@ -12240,7 +14133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>14</v>
       </c>
@@ -12261,7 +14154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>15</v>
       </c>
@@ -12282,7 +14175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" s="3">
         <v>16</v>
       </c>
@@ -12303,7 +14196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" s="3">
         <v>17</v>
       </c>
@@ -12324,7 +14217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A25" s="3">
         <v>18</v>
       </c>
@@ -12345,7 +14238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" s="3">
         <v>19</v>
       </c>
@@ -12366,7 +14259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" s="3">
         <v>20</v>
       </c>
@@ -12387,7 +14280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" s="3">
         <v>21</v>
       </c>
@@ -12408,7 +14301,7 @@
         <v>5.9525324197758534E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" s="3">
         <v>22</v>
       </c>
@@ -12429,7 +14322,7 @@
         <v>7.9154515829799694E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" s="3">
         <v>23</v>
       </c>
@@ -12450,7 +14343,7 @@
         <v>1.0420934814422591E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" s="3">
         <v>24</v>
       </c>
@@ -12471,7 +14364,7 @@
         <v>1.3582969233685612E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" s="3">
         <v>25</v>
       </c>
@@ -12492,7 +14385,7 @@
         <v>1.752830049356854E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" s="3">
         <v>26</v>
       </c>
@@ -12513,7 +14406,7 @@
         <v>2.2394530294842902E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" s="3">
         <v>27</v>
       </c>
@@ -12534,7 +14427,7 @@
         <v>2.8327037741601186E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35" s="3">
         <v>28</v>
       </c>
@@ -12555,7 +14448,7 @@
         <v>3.5474592846231421E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" s="3">
         <v>29</v>
       </c>
@@ -12576,7 +14469,7 @@
         <v>4.3983595980427196E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A37" s="3">
         <v>30</v>
       </c>
@@ -12597,7 +14490,7 @@
         <v>5.3990966513188061E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" s="3">
         <v>31</v>
       </c>
@@ -12618,7 +14511,7 @@
         <v>6.5615814774676604E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" s="3">
         <v>32</v>
       </c>
@@ -12639,7 +14532,7 @@
         <v>7.8950158300894139E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" s="3">
         <v>33</v>
       </c>
@@ -12660,7 +14553,7 @@
         <v>9.4049077376886937E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A41" s="3">
         <v>34</v>
       </c>
@@ -12681,7 +14574,7 @@
         <v>1.1092083467945555E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" s="3">
         <v>35</v>
       </c>
@@ -12702,7 +14595,7 @@
         <v>1.2951759566589173E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43" s="3">
         <v>36</v>
       </c>
@@ -12723,7 +14616,7 @@
         <v>1.4972746563574486E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A44" s="3">
         <v>37</v>
       </c>
@@ -12744,7 +14637,7 @@
         <v>1.7136859204780735E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45" s="3">
         <v>38</v>
       </c>
@@ -12765,7 +14658,7 @@
         <v>1.9418605498321296E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" s="3">
         <v>39</v>
       </c>
@@ -12786,7 +14679,7 @@
         <v>2.1785217703255054E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A47" s="3">
         <v>40</v>
       </c>
@@ -12807,7 +14700,7 @@
         <v>2.4197072451914336E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" s="3">
         <v>41</v>
       </c>
@@ -12828,7 +14721,7 @@
         <v>2.6608524989875482E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A49" s="3">
         <v>42</v>
       </c>
@@ -12849,7 +14742,7 @@
         <v>2.8969155276148274E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A50" s="3">
         <v>43</v>
       </c>
@@ -12870,7 +14763,7 @@
         <v>3.1225393336676129E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A51" s="3">
         <v>44</v>
       </c>
@@ -12891,7 +14784,7 @@
         <v>3.3322460289179963E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A52" s="3">
         <v>45</v>
       </c>
@@ -12912,7 +14805,7 @@
         <v>3.5206532676429952E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A53" s="3">
         <v>46</v>
       </c>
@@ -12933,7 +14826,7 @@
         <v>3.6827014030332332E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A54" s="3">
         <v>47</v>
       </c>
@@ -12954,7 +14847,7 @@
         <v>3.8138781546052408E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A55" s="3">
         <v>48</v>
       </c>
@@ -12975,7 +14868,7 @@
         <v>3.9104269397545591E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A56" s="3">
         <v>49</v>
       </c>
@@ -12996,7 +14889,7 @@
         <v>3.9695254747701178E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A57" s="3">
         <v>50</v>
       </c>
@@ -13017,7 +14910,7 @@
         <v>3.9894228040143274E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A58" s="3">
         <v>51</v>
       </c>
@@ -13038,7 +14931,7 @@
         <v>3.9695254747701178E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A59" s="3">
         <v>52</v>
       </c>
@@ -13059,7 +14952,7 @@
         <v>3.9104269397545591E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A60" s="3">
         <v>53</v>
       </c>
@@ -13080,7 +14973,7 @@
         <v>3.8138781546052408E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A61" s="3">
         <v>54</v>
       </c>
@@ -13101,7 +14994,7 @@
         <v>3.6827014030332332E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A62" s="3">
         <v>55</v>
       </c>
@@ -13122,7 +15015,7 @@
         <v>3.5206532676429952E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A63" s="3">
         <v>56</v>
       </c>
@@ -13143,7 +15036,7 @@
         <v>3.3322460289179963E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A64" s="3">
         <v>57</v>
       </c>
@@ -13164,7 +15057,7 @@
         <v>3.1225393336676129E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A65" s="3">
         <v>58</v>
       </c>
@@ -13185,7 +15078,7 @@
         <v>2.8969155276148274E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A66" s="3">
         <v>59</v>
       </c>
@@ -13206,7 +15099,7 @@
         <v>2.6608524989875482E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A67" s="3">
         <v>60</v>
       </c>
@@ -13227,7 +15120,7 @@
         <v>2.4197072451914336E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A68" s="3">
         <v>61</v>
       </c>
@@ -13248,7 +15141,7 @@
         <v>2.1785217703255054E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A69" s="3">
         <v>62</v>
       </c>
@@ -13269,7 +15162,7 @@
         <v>1.9418605498321296E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A70" s="3">
         <v>63</v>
       </c>
@@ -13290,7 +15183,7 @@
         <v>1.7136859204780735E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A71" s="3">
         <v>64</v>
       </c>
@@ -13311,7 +15204,7 @@
         <v>1.4972746563574486E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A72" s="3">
         <v>65</v>
       </c>
@@ -13332,7 +15225,7 @@
         <v>1.2951759566589173E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A73" s="3">
         <v>66</v>
       </c>
@@ -13353,7 +15246,7 @@
         <v>1.1092083467945555E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A74" s="3">
         <v>67</v>
       </c>
@@ -13374,7 +15267,7 @@
         <v>9.4049077376886937E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A75" s="3">
         <v>68</v>
       </c>
@@ -13395,7 +15288,7 @@
         <v>7.8950158300894139E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A76" s="3">
         <v>69</v>
       </c>
@@ -13416,7 +15309,7 @@
         <v>6.5615814774676604E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A77" s="3">
         <v>70</v>
       </c>
@@ -13437,7 +15330,7 @@
         <v>5.3990966513188061E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A78" s="3">
         <v>71</v>
       </c>
@@ -13458,7 +15351,7 @@
         <v>4.3983595980427196E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A79" s="3">
         <v>72</v>
       </c>
@@ -13479,7 +15372,7 @@
         <v>3.5474592846231421E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A80" s="3">
         <v>73</v>
       </c>
@@ -13500,7 +15393,7 @@
         <v>2.8327037741601186E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A81" s="3">
         <v>74</v>
       </c>
@@ -13521,7 +15414,7 @@
         <v>2.2394530294842902E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A82" s="3">
         <v>75</v>
       </c>
@@ -13542,7 +15435,7 @@
         <v>1.752830049356854E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A83" s="3">
         <v>76</v>
       </c>
@@ -13563,7 +15456,7 @@
         <v>1.3582969233685612E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A84" s="3">
         <v>77</v>
       </c>
@@ -13584,7 +15477,7 @@
         <v>1.0420934814422591E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A85" s="3">
         <v>78</v>
       </c>
@@ -13605,7 +15498,7 @@
         <v>7.9154515829799694E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A86" s="3">
         <v>79</v>
       </c>
@@ -13626,7 +15519,7 @@
         <v>5.9525324197758534E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A87" s="3">
         <v>80</v>
       </c>
@@ -13647,7 +15540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A88" s="3">
         <v>81</v>
       </c>
@@ -13668,7 +15561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A89" s="3">
         <v>82</v>
       </c>
@@ -13689,7 +15582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A90" s="3">
         <v>83</v>
       </c>
@@ -13710,7 +15603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A91" s="3">
         <v>84</v>
       </c>
@@ -13731,7 +15624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A92" s="3">
         <v>85</v>
       </c>
@@ -13752,7 +15645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A93" s="3">
         <v>86</v>
       </c>
@@ -13773,7 +15666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A94" s="3">
         <v>87</v>
       </c>
@@ -13794,7 +15687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A95" s="3">
         <v>88</v>
       </c>
@@ -13815,7 +15708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A96" s="3">
         <v>89</v>
       </c>
@@ -13836,7 +15729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A97" s="3">
         <v>90</v>
       </c>
@@ -13857,7 +15750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A98" s="3">
         <v>91</v>
       </c>
@@ -13878,7 +15771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A99" s="3">
         <v>92</v>
       </c>
@@ -13899,7 +15792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A100" s="3">
         <v>93</v>
       </c>
@@ -13920,7 +15813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A101" s="3">
         <v>94</v>
       </c>
@@ -13941,7 +15834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A102" s="3">
         <v>95</v>
       </c>
@@ -13962,7 +15855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A103" s="3">
         <v>96</v>
       </c>
@@ -13983,12 +15876,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A104" s="3">
         <v>97</v>
       </c>
       <c r="B104" s="3">
-        <f t="shared" ref="B104:B135" si="8">_xlfn.NORM.DIST(A104,$B$1,$B$2,FALSE)</f>
+        <f t="shared" ref="B104:B107" si="8">_xlfn.NORM.DIST(A104,$B$1,$B$2,FALSE)</f>
         <v>6.3698251788670893E-7</v>
       </c>
       <c r="C104" s="3">
@@ -14004,7 +15897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A105" s="3">
         <v>98</v>
       </c>
@@ -14025,7 +15918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A106" s="3">
         <v>99</v>
       </c>
@@ -14046,7 +15939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A107" s="3">
         <v>100</v>
       </c>
@@ -14073,7 +15966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9076F05E-805B-4D77-BA07-4F7CD1787350}">
   <dimension ref="A1:F107"/>
   <sheetViews>
@@ -14082,16 +15975,16 @@
       <selection pane="bottomLeft" activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.64453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14102,7 +15995,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14113,12 +16006,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -14129,7 +16022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -14146,7 +16039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -14163,7 +16056,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -14180,7 +16073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -14201,7 +16094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>2</v>
       </c>
@@ -14222,7 +16115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -14243,7 +16136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>4</v>
       </c>
@@ -14264,7 +16157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -14285,7 +16178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>6</v>
       </c>
@@ -14306,7 +16199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -14327,7 +16220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>8</v>
       </c>
@@ -14348,7 +16241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="2">
         <v>9</v>
       </c>
@@ -14369,7 +16262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>10</v>
       </c>
@@ -14390,7 +16283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" s="2">
         <v>11</v>
       </c>
@@ -14411,7 +16304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>12</v>
       </c>
@@ -14432,7 +16325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" s="2">
         <v>13</v>
       </c>
@@ -14453,7 +16346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>14</v>
       </c>
@@ -14474,7 +16367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" s="2">
         <v>15</v>
       </c>
@@ -14495,7 +16388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>16</v>
       </c>
@@ -14516,7 +16409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" s="2">
         <v>17</v>
       </c>
@@ -14537,7 +16430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>18</v>
       </c>
@@ -14558,7 +16451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" s="2">
         <v>19</v>
       </c>
@@ -14579,7 +16472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>20</v>
       </c>
@@ -14600,7 +16493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" s="2">
         <v>21</v>
       </c>
@@ -14621,7 +16514,7 @@
         <v>5.9525324197758534E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>22</v>
       </c>
@@ -14642,7 +16535,7 @@
         <v>7.9154515829799694E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" s="2">
         <v>23</v>
       </c>
@@ -14663,7 +16556,7 @@
         <v>1.0420934814422591E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>24</v>
       </c>
@@ -14684,7 +16577,7 @@
         <v>1.3582969233685612E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" s="2">
         <v>25</v>
       </c>
@@ -14705,7 +16598,7 @@
         <v>1.752830049356854E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>26</v>
       </c>
@@ -14726,7 +16619,7 @@
         <v>2.2394530294842902E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" s="2">
         <v>27</v>
       </c>
@@ -14747,7 +16640,7 @@
         <v>2.8327037741601186E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>28</v>
       </c>
@@ -14768,7 +16661,7 @@
         <v>3.5474592846231421E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" s="2">
         <v>29</v>
       </c>
@@ -14789,7 +16682,7 @@
         <v>4.3983595980427196E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>30</v>
       </c>
@@ -14810,7 +16703,7 @@
         <v>5.3990966513188061E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" s="2">
         <v>31</v>
       </c>
@@ -14831,7 +16724,7 @@
         <v>6.5615814774676604E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>32</v>
       </c>
@@ -14852,7 +16745,7 @@
         <v>7.8950158300894139E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" s="2">
         <v>33</v>
       </c>
@@ -14873,7 +16766,7 @@
         <v>9.4049077376886937E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>34</v>
       </c>
@@ -14894,7 +16787,7 @@
         <v>1.1092083467945555E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" s="2">
         <v>35</v>
       </c>
@@ -14915,7 +16808,7 @@
         <v>1.2951759566589173E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>36</v>
       </c>
@@ -14936,7 +16829,7 @@
         <v>1.4972746563574486E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A44" s="2">
         <v>37</v>
       </c>
@@ -14957,7 +16850,7 @@
         <v>1.7136859204780735E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>38</v>
       </c>
@@ -14978,7 +16871,7 @@
         <v>1.9418605498321296E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" s="2">
         <v>39</v>
       </c>
@@ -14999,7 +16892,7 @@
         <v>2.1785217703255054E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>40</v>
       </c>
@@ -15020,7 +16913,7 @@
         <v>2.4197072451914336E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" s="2">
         <v>41</v>
       </c>
@@ -15041,7 +16934,7 @@
         <v>2.6608524989875482E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>42</v>
       </c>
@@ -15062,7 +16955,7 @@
         <v>2.8969155276148274E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A50" s="2">
         <v>43</v>
       </c>
@@ -15083,7 +16976,7 @@
         <v>3.1225393336676129E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>44</v>
       </c>
@@ -15104,7 +16997,7 @@
         <v>3.3322460289179963E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A52" s="2">
         <v>45</v>
       </c>
@@ -15125,7 +17018,7 @@
         <v>3.5206532676429952E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>46</v>
       </c>
@@ -15146,7 +17039,7 @@
         <v>3.6827014030332332E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A54" s="2">
         <v>47</v>
       </c>
@@ -15167,7 +17060,7 @@
         <v>3.8138781546052408E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>48</v>
       </c>
@@ -15188,7 +17081,7 @@
         <v>3.9104269397545591E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A56" s="2">
         <v>49</v>
       </c>
@@ -15209,7 +17102,7 @@
         <v>3.9695254747701178E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>50</v>
       </c>
@@ -15230,7 +17123,7 @@
         <v>3.9894228040143274E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A58" s="2">
         <v>51</v>
       </c>
@@ -15251,7 +17144,7 @@
         <v>3.9695254747701178E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>52</v>
       </c>
@@ -15272,7 +17165,7 @@
         <v>3.9104269397545591E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A60" s="2">
         <v>53</v>
       </c>
@@ -15293,7 +17186,7 @@
         <v>3.8138781546052408E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>54</v>
       </c>
@@ -15314,7 +17207,7 @@
         <v>3.6827014030332332E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A62" s="2">
         <v>55</v>
       </c>
@@ -15335,7 +17228,7 @@
         <v>3.5206532676429952E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>56</v>
       </c>
@@ -15356,7 +17249,7 @@
         <v>3.3322460289179963E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A64" s="2">
         <v>57</v>
       </c>
@@ -15377,7 +17270,7 @@
         <v>3.1225393336676129E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>58</v>
       </c>
@@ -15398,7 +17291,7 @@
         <v>2.8969155276148274E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A66" s="2">
         <v>59</v>
       </c>
@@ -15419,7 +17312,7 @@
         <v>2.6608524989875482E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>60</v>
       </c>
@@ -15440,7 +17333,7 @@
         <v>2.4197072451914336E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A68" s="2">
         <v>61</v>
       </c>
@@ -15461,7 +17354,7 @@
         <v>2.1785217703255054E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>62</v>
       </c>
@@ -15482,7 +17375,7 @@
         <v>1.9418605498321296E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A70" s="2">
         <v>63</v>
       </c>
@@ -15503,7 +17396,7 @@
         <v>1.7136859204780735E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>64</v>
       </c>
@@ -15524,7 +17417,7 @@
         <v>1.4972746563574486E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A72" s="2">
         <v>65</v>
       </c>
@@ -15545,7 +17438,7 @@
         <v>1.2951759566589173E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>66</v>
       </c>
@@ -15566,7 +17459,7 @@
         <v>1.1092083467945555E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A74" s="2">
         <v>67</v>
       </c>
@@ -15587,7 +17480,7 @@
         <v>9.4049077376886937E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>68</v>
       </c>
@@ -15608,7 +17501,7 @@
         <v>7.8950158300894139E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A76" s="2">
         <v>69</v>
       </c>
@@ -15629,7 +17522,7 @@
         <v>6.5615814774676604E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>70</v>
       </c>
@@ -15650,7 +17543,7 @@
         <v>5.3990966513188061E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A78" s="2">
         <v>71</v>
       </c>
@@ -15671,7 +17564,7 @@
         <v>4.3983595980427196E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>72</v>
       </c>
@@ -15692,7 +17585,7 @@
         <v>3.5474592846231421E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A80" s="2">
         <v>73</v>
       </c>
@@ -15713,7 +17606,7 @@
         <v>2.8327037741601186E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>74</v>
       </c>
@@ -15734,7 +17627,7 @@
         <v>2.2394530294842902E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A82" s="2">
         <v>75</v>
       </c>
@@ -15755,7 +17648,7 @@
         <v>1.752830049356854E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>76</v>
       </c>
@@ -15776,7 +17669,7 @@
         <v>1.3582969233685612E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A84" s="2">
         <v>77</v>
       </c>
@@ -15797,7 +17690,7 @@
         <v>1.0420934814422591E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>78</v>
       </c>
@@ -15818,7 +17711,7 @@
         <v>7.9154515829799694E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A86" s="2">
         <v>79</v>
       </c>
@@ -15839,7 +17732,7 @@
         <v>5.9525324197758534E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>80</v>
       </c>
@@ -15860,7 +17753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A88" s="2">
         <v>81</v>
       </c>
@@ -15881,7 +17774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>82</v>
       </c>
@@ -15902,7 +17795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A90" s="2">
         <v>83</v>
       </c>
@@ -15923,7 +17816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>84</v>
       </c>
@@ -15944,7 +17837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A92" s="2">
         <v>85</v>
       </c>
@@ -15965,7 +17858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>86</v>
       </c>
@@ -15986,7 +17879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A94" s="2">
         <v>87</v>
       </c>
@@ -16007,7 +17900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>88</v>
       </c>
@@ -16028,7 +17921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A96" s="2">
         <v>89</v>
       </c>
@@ -16049,7 +17942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>90</v>
       </c>
@@ -16070,7 +17963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A98" s="2">
         <v>91</v>
       </c>
@@ -16091,7 +17984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>92</v>
       </c>
@@ -16112,7 +18005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A100" s="2">
         <v>93</v>
       </c>
@@ -16133,7 +18026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>94</v>
       </c>
@@ -16154,7 +18047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A102" s="2">
         <v>95</v>
       </c>
@@ -16175,7 +18068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>96</v>
       </c>
@@ -16196,12 +18089,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A104" s="2">
         <v>97</v>
       </c>
       <c r="B104" s="2">
-        <f t="shared" ref="B104:B135" si="8">_xlfn.NORM.DIST(A104,$B$1,$B$2,FALSE)</f>
+        <f t="shared" ref="B104:B107" si="8">_xlfn.NORM.DIST(A104,$B$1,$B$2,FALSE)</f>
         <v>6.3698251788670893E-7</v>
       </c>
       <c r="C104" s="2">
@@ -16217,7 +18110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A105">
         <v>98</v>
       </c>
@@ -16238,7 +18131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A106" s="2">
         <v>99</v>
       </c>
@@ -16259,7 +18152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A107">
         <v>100</v>
       </c>
